--- a/data/parameter_values.xlsx
+++ b/data/parameter_values.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anubhav/Google Drive/GitHub/C1_method_v2/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{606E4B18-E825-C946-B317-7B9A76F0953D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F30E8A52-1E11-0445-9D91-6C283BAD84A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33600" yWindow="-920" windowWidth="27380" windowHeight="17200" xr2:uid="{25383563-4583-F246-961C-0C0BFC4C8D62}"/>
+    <workbookView xWindow="-23880" yWindow="500" windowWidth="23880" windowHeight="16180" xr2:uid="{25383563-4583-F246-961C-0C0BFC4C8D62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -543,7 +543,7 @@
   <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1161,16 +1161,16 @@
         <v>19</v>
       </c>
       <c r="B13" s="9">
-        <v>4.3901990000000002E-13</v>
+        <v>2.8665610000000002E-10</v>
       </c>
       <c r="C13" s="9">
-        <v>-3.4461719999999998</v>
+        <v>-2.9583330000000001</v>
       </c>
       <c r="D13" s="9">
-        <v>0.47758519999999999</v>
+        <v>0.48472219999999999</v>
       </c>
       <c r="E13" s="9">
-        <v>2.1895229999999999</v>
+        <v>2.356093</v>
       </c>
       <c r="F13" s="1">
         <v>0.35</v>
